--- a/admin/public/export.xlsx
+++ b/admin/public/export.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="2" sheetId="1" r:id="rId4"/>
+    <sheet name="4" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -396,9 +396,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
+      <c r="C2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/public/export.xlsx
+++ b/admin/public/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Mã học viên</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>Hoàng Nguyễn Quang Bách</t>
+  </si>
+  <si>
+    <t>duy đỉnh</t>
+  </si>
+  <si>
+    <t>khoa nguyễn</t>
   </si>
 </sst>
 </file>
@@ -365,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,6 +403,24 @@
         <v>3</v>
       </c>
       <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/public/export.xlsx
+++ b/admin/public/export.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="4" sheetId="1" r:id="rId4"/>
+    <sheet name="8" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Mã học viên</t>
   </si>
@@ -26,13 +26,7 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t>Hoàng Nguyễn Quang Bách</t>
-  </si>
-  <si>
-    <t>duy đỉnh</t>
-  </si>
-  <si>
-    <t>khoa nguyễn</t>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -371,7 +365,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,7 +374,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -397,30 +391,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/admin/public/export.xlsx
+++ b/admin/public/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Mã học viên</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>Võ Tấn Phú</t>
+  </si>
+  <si>
+    <t>Hoàng Thắng</t>
   </si>
 </sst>
 </file>
@@ -365,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,7 +380,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -397,6 +403,24 @@
         <v>3</v>
       </c>
       <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
